--- a/step2_route_report.xlsx
+++ b/step2_route_report.xlsx
@@ -10,14 +10,36 @@
     <sheet name="durations_min" sheetId="1" r:id="rId1"/>
     <sheet name="distances_km" sheetId="2" r:id="rId2"/>
     <sheet name="visits" sheetId="3" r:id="rId3"/>
-    <sheet name="kpis" sheetId="4" r:id="rId4"/>
+    <sheet name="route" sheetId="4" r:id="rId4"/>
+    <sheet name="kpis" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+  <si>
+    <t>1. Eichholzstrasse 14</t>
+  </si>
+  <si>
+    <t>2. General-Wille Strasse 204</t>
+  </si>
+  <si>
+    <t>3. Eichholzstrasse 14</t>
+  </si>
+  <si>
+    <t>4. Bahnhofwiese 1</t>
+  </si>
+  <si>
+    <t>5. Buechstrasse 25</t>
+  </si>
+  <si>
+    <t>6. Eichholzstrasse 14</t>
+  </si>
+  <si>
+    <t>7. Eichwiesstrasse 10</t>
+  </si>
   <si>
     <t>planned_order</t>
   </si>
@@ -125,6 +147,12 @@
   </si>
   <si>
     <t>Eichwiesstrasse 10, 8645 Rapperswil-Jona</t>
+  </si>
+  <si>
+    <t>planned_label</t>
+  </si>
+  <si>
+    <t>optimal_label</t>
   </si>
   <si>
     <t>planned_total_duration_min</t>
@@ -504,38 +532,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>3.1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>15.9</v>
-      </c>
-      <c r="E1">
-        <v>30</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>3.1</v>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -544,21 +572,24 @@
         <v>3.1</v>
       </c>
       <c r="D2">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>30.6</v>
+        <v>15.9</v>
       </c>
       <c r="F2">
-        <v>3.1</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3.1</v>
@@ -567,107 +598,148 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>3.1</v>
+      </c>
+      <c r="E3">
+        <v>14.1</v>
+      </c>
+      <c r="F3">
+        <v>30.6</v>
+      </c>
+      <c r="G3">
+        <v>3.1</v>
+      </c>
+      <c r="H3">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3.1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>15.9</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>28.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>15.2</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>13.4</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>15.2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>18.8</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>15.2</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>14.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>31.1</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>30.8</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>31.1</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>19.3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>31.1</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>3.1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>15.9</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>28.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>28.7</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>27</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>28.7</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>15.5</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>6.9</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>28.7</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
@@ -678,38 +750,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1.81</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>10.92</v>
-      </c>
-      <c r="E1">
-        <v>31.88</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>20.48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1.81</v>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -718,21 +790,24 @@
         <v>1.81</v>
       </c>
       <c r="D2">
-        <v>9.869999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>33.09</v>
+        <v>10.92</v>
       </c>
       <c r="F2">
-        <v>1.81</v>
+        <v>31.88</v>
       </c>
       <c r="G2">
-        <v>19.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1.81</v>
@@ -741,107 +816,148 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>1.81</v>
+      </c>
+      <c r="E3">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F3">
+        <v>33.09</v>
+      </c>
+      <c r="G3">
+        <v>1.81</v>
+      </c>
+      <c r="H3">
+        <v>19.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1.81</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>10.92</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>31.88</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>20.48</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>10.63</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>9.58</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>10.63</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.36</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>10.63</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>10.64</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>33.08</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>22.16</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>33.08</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>13.65</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>33.08</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>4.02</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1.81</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>10.92</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>31.88</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>20.48</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>20.49</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>19.44</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>20.49</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>10.94</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>4.03</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>20.49</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
@@ -860,34 +976,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -898,22 +1014,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>45944</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>45944</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>47.2815189</v>
@@ -930,22 +1046,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>45944</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>45944</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>47.2758539</v>
@@ -962,22 +1078,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>45944</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>45944</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>47.2815189</v>
@@ -994,22 +1110,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>45944</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
         <v>45944</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>47.2416132</v>
@@ -1026,22 +1142,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>45944</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <v>45944</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>47.228065</v>
@@ -1058,22 +1174,22 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>45944</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>45944</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>47.2815189</v>
@@ -1090,22 +1206,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>45944</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>45944</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>47.224647</v>
@@ -1120,6 +1236,131 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1129,22 +1370,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6">
